--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -76,6 +76,39 @@
   </si>
   <si>
     <t>DB Name (utf8_general_ci)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Скрипт запуска cron</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/bankuo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/gerkie.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/hartey.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/jaeteo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/kojbay.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/lerkoi.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/porloa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/ziopui.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>00 2 * * * cd /home/lol/data/www/zorkda.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
   </si>
 </sst>
 </file>
@@ -408,59 +441,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -470,30 +520,39 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -503,30 +562,42 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -84,31 +84,40 @@
     <t>Скрипт запуска cron</t>
   </si>
   <si>
-    <t>00 2 * * * cd /home/lol/data/www/bankuo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/gerkie.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/hartey.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/jaeteo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/kojbay.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/lerkoi.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/porloa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/ziopui.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
-  </si>
-  <si>
-    <t>00 2 * * * cd /home/lol/data/www/zorkda.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+    <t>Добавлено</t>
+  </si>
+  <si>
+    <t>05 2 * * * cd /home/lol/data/www/bankuo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>10 2 * * * cd /home/lol/data/www/gerkie.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>15 2 * * * cd /home/lol/data/www/hartey.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>20 2 * * * cd /home/lol/data/www/jaeteo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>25 2 * * * cd /home/lol/data/www/kojbay.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>30 2 * * * cd /home/lol/data/www/lerkoi.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>35 2 * * * cd /home/lol/data/www/porloa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>40 2 * * * cd /home/lol/data/www/ziopui.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>45 2 * * * cd /home/lol/data/www/zorkda.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>Изменены имена баз данных в конфиге</t>
+  </si>
+  <si>
+    <t>Добавлены случайные кеи в хидер страницы</t>
   </si>
 </sst>
 </file>
@@ -145,8 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,10 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,9 +465,12 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="93.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8" ht="48" customHeight="1">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -464,8 +480,17 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -479,10 +504,13 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -492,11 +520,17 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -507,10 +541,13 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -521,10 +558,13 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -535,10 +575,13 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -549,10 +592,13 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -563,10 +609,13 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -577,10 +626,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -591,7 +643,10 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Добавлены случайные кеи в хидер страницы</t>
+  </si>
+  <si>
+    <t>Залиты исходники</t>
   </si>
 </sst>
 </file>
@@ -453,11 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -468,9 +471,10 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1">
+    <row r="1" spans="1:9" ht="48" customHeight="1">
       <c r="C1" t="s">
         <v>19</v>
       </c>
@@ -489,8 +493,11 @@
       <c r="H1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,8 +516,14 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,8 +542,14 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,14 +559,23 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -557,6 +585,9 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -564,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -581,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -598,7 +629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -615,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -632,7 +663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Залиты исходники</t>
+  </si>
+  <si>
+    <t>Новости запощены</t>
+  </si>
+  <si>
+    <t>robots.txt</t>
   </si>
 </sst>
 </file>
@@ -456,48 +462,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1">
-      <c r="C1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -519,11 +533,11 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,11 +559,11 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -571,11 +585,11 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -594,8 +608,14 @@
       <c r="F5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,14 +625,23 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,14 +651,23 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -639,14 +677,23 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -662,8 +709,14 @@
       <c r="F9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -677,6 +730,12 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>20</v>
       </c>
     </row>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -127,13 +127,19 @@
   </si>
   <si>
     <t>robots.txt</t>
+  </si>
+  <si>
+    <t>Time table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Использование H1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +180,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -461,15 +474,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -482,7 +495,7 @@
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -510,8 +523,14 @@
       <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -536,8 +555,20 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -562,8 +593,20 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -588,8 +631,17 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -614,8 +666,17 @@
       <c r="H5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -640,8 +701,17 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -666,8 +736,17 @@
       <c r="H7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -692,8 +771,17 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -703,6 +791,9 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
@@ -715,8 +806,17 @@
       <c r="H9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -726,6 +826,9 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" t="s">
         <v>31</v>
       </c>
@@ -736,6 +839,15 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -749,12 +861,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -762,12 +874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -133,6 +133,66 @@
   </si>
   <si>
     <t xml:space="preserve">Использование H1 </t>
+  </si>
+  <si>
+    <t>asday.ru</t>
+  </si>
+  <si>
+    <t>cdeou.ru</t>
+  </si>
+  <si>
+    <t>cxzoa.ru</t>
+  </si>
+  <si>
+    <t>dsaya.ru</t>
+  </si>
+  <si>
+    <t>ewqye.ru</t>
+  </si>
+  <si>
+    <t>fghao.ru</t>
+  </si>
+  <si>
+    <t>hgfyu.ru</t>
+  </si>
+  <si>
+    <t>jklua.ru</t>
+  </si>
+  <si>
+    <t>lkjoa.ru</t>
+  </si>
+  <si>
+    <t>nbvyi.ru</t>
+  </si>
+  <si>
+    <t>nmbia.ru</t>
+  </si>
+  <si>
+    <t>oiuyo.ru</t>
+  </si>
+  <si>
+    <t>qweae.ru</t>
+  </si>
+  <si>
+    <t>rtyai.ru</t>
+  </si>
+  <si>
+    <t>uioya.ru</t>
+  </si>
+  <si>
+    <t>vbnea.ru</t>
+  </si>
+  <si>
+    <t>wsxoy.ru</t>
+  </si>
+  <si>
+    <t>ytryy.ru</t>
+  </si>
+  <si>
+    <t>zaqoe.ru</t>
+  </si>
+  <si>
+    <t>zxcau.ru</t>
   </si>
 </sst>
 </file>
@@ -475,19 +535,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M7" sqref="M7"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="102.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -849,6 +909,332 @@
       </c>
       <c r="K10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE("dg_1_",MID(B13,1,LEN(B13)-3))</f>
+        <v>dg_1_asday</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE("05 2 * * * cd /home/lol/data/www/",B13,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>05 2 * * * cd /home/lol/data/www/asday.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:C32" si="0">CONCATENATE("dg_1_",MID(B14,1,LEN(B14)-3))</f>
+        <v>dg_1_cdeou</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE("10 2 * * * cd /home/lol/data/www/",B14,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>10 2 * * * cd /home/lol/data/www/cdeou.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_cxzoa</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE("15 2 * * * cd /home/lol/data/www/",B15,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>15 2 * * * cd /home/lol/data/www/cxzoa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_dsaya</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE("20 2 * * * cd /home/lol/data/www/",B16,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>20 2 * * * cd /home/lol/data/www/dsaya.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_ewqye</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE("25 2 * * * cd /home/lol/data/www/",B17,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>25 2 * * * cd /home/lol/data/www/ewqye.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_fghao</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE("30 2 * * * cd /home/lol/data/www/",B18,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>30 2 * * * cd /home/lol/data/www/fghao.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_hgfyu</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE("35 2 * * * cd /home/lol/data/www/",B19,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>35 2 * * * cd /home/lol/data/www/hgfyu.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_jklua</v>
+      </c>
+      <c r="E20" t="str">
+        <f>CONCATENATE("40 2 * * * cd /home/lol/data/www/",B20,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>40 2 * * * cd /home/lol/data/www/jklua.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_lkjoa</v>
+      </c>
+      <c r="E21" t="str">
+        <f>CONCATENATE("45 2 * * * cd /home/lol/data/www/",B21,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>45 2 * * * cd /home/lol/data/www/lkjoa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_nbvyi</v>
+      </c>
+      <c r="E22" t="str">
+        <f>CONCATENATE("50 2 * * * cd /home/lol/data/www/",B22,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>50 2 * * * cd /home/lol/data/www/nbvyi.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_nmbia</v>
+      </c>
+      <c r="E23" t="str">
+        <f>CONCATENATE("55 2 * * * cd /home/lol/data/www/",B23,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>55 2 * * * cd /home/lol/data/www/nmbia.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_oiuyo</v>
+      </c>
+      <c r="E24" t="str">
+        <f>CONCATENATE("00 3 * * * cd /home/lol/data/www/",B24,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>00 3 * * * cd /home/lol/data/www/oiuyo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_qweae</v>
+      </c>
+      <c r="E25" t="str">
+        <f>CONCATENATE("05 3 * * * cd /home/lol/data/www/",B25,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>05 3 * * * cd /home/lol/data/www/qweae.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_rtyai</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE("10 3 * * * cd /home/lol/data/www/",B26,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>10 3 * * * cd /home/lol/data/www/rtyai.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_uioya</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE("15 3 * * * cd /home/lol/data/www/",B27,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>15 3 * * * cd /home/lol/data/www/uioya.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_vbnea</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE("20 3 * * * cd /home/lol/data/www/",B28,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>20 3 * * * cd /home/lol/data/www/vbnea.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_wsxoy</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE("25 3 * * * cd /home/lol/data/www/",B29,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>25 3 * * * cd /home/lol/data/www/wsxoy.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_ytryy</v>
+      </c>
+      <c r="E30" t="str">
+        <f>CONCATENATE("30 3 * * * cd /home/lol/data/www/",B30,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>30 3 * * * cd /home/lol/data/www/ytryy.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_zaqoe</v>
+      </c>
+      <c r="E31" t="str">
+        <f>CONCATENATE("35 3 * * * cd /home/lol/data/www/",B31,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>35 3 * * * cd /home/lol/data/www/zaqoe.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_zxcau</v>
+      </c>
+      <c r="E32" t="str">
+        <f>CONCATENATE("40 3 * * * cd /home/lol/data/www/",B32,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>40 3 * * * cd /home/lol/data/www/zxcau.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f>MID(B32,1,LEN(B32)-3)</f>
+        <v>zxcau</v>
       </c>
     </row>
   </sheetData>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -198,8 +198,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -358,7 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -534,15 +532,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
@@ -555,7 +553,7 @@
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -590,7 +588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -628,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -666,7 +664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -701,7 +699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -736,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -771,7 +769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -806,7 +804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -841,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -876,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -911,7 +909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1</v>
       </c>
@@ -923,11 +921,11 @@
         <v>dg_1_asday</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE("05 2 * * * cd /home/lol/data/www/",B13,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>05 2 * * * cd /home/lol/data/www/asday.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("05 2 * * * cd /var/www/thedavidas/data/www/",B13,"/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/asday.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>2</v>
       </c>
@@ -939,11 +937,11 @@
         <v>dg_1_cdeou</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE("10 2 * * * cd /home/lol/data/www/",B14,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>10 2 * * * cd /home/lol/data/www/cdeou.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E14:E32" si="1">CONCATENATE("05 2 * * * cd /var/www/thedavidas/data/www/",B14,"/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/cdeou.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>3</v>
       </c>
@@ -955,11 +953,11 @@
         <v>dg_1_cxzoa</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE("15 2 * * * cd /home/lol/data/www/",B15,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>15 2 * * * cd /home/lol/data/www/cxzoa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/cxzoa.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>4</v>
       </c>
@@ -971,11 +969,11 @@
         <v>dg_1_dsaya</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE("20 2 * * * cd /home/lol/data/www/",B16,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>20 2 * * * cd /home/lol/data/www/dsaya.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/dsaya.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>5</v>
       </c>
@@ -987,11 +985,11 @@
         <v>dg_1_ewqye</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE("25 2 * * * cd /home/lol/data/www/",B17,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>25 2 * * * cd /home/lol/data/www/ewqye.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/ewqye.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1003,11 +1001,11 @@
         <v>dg_1_fghao</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE("30 2 * * * cd /home/lol/data/www/",B18,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>30 2 * * * cd /home/lol/data/www/fghao.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/fghao.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1019,11 +1017,11 @@
         <v>dg_1_hgfyu</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE("35 2 * * * cd /home/lol/data/www/",B19,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>35 2 * * * cd /home/lol/data/www/hgfyu.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/hgfyu.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1035,11 +1033,11 @@
         <v>dg_1_jklua</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE("40 2 * * * cd /home/lol/data/www/",B20,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>40 2 * * * cd /home/lol/data/www/jklua.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/jklua.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1051,11 +1049,11 @@
         <v>dg_1_lkjoa</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE("45 2 * * * cd /home/lol/data/www/",B21,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>45 2 * * * cd /home/lol/data/www/lkjoa.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/lkjoa.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>10</v>
       </c>
@@ -1067,11 +1065,11 @@
         <v>dg_1_nbvyi</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE("50 2 * * * cd /home/lol/data/www/",B22,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>50 2 * * * cd /home/lol/data/www/nbvyi.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/nbvyi.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>11</v>
       </c>
@@ -1083,11 +1081,11 @@
         <v>dg_1_nmbia</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE("55 2 * * * cd /home/lol/data/www/",B23,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>55 2 * * * cd /home/lol/data/www/nmbia.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/nmbia.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>12</v>
       </c>
@@ -1099,11 +1097,11 @@
         <v>dg_1_oiuyo</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("00 3 * * * cd /home/lol/data/www/",B24,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>00 3 * * * cd /home/lol/data/www/oiuyo.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/oiuyo.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>13</v>
       </c>
@@ -1115,11 +1113,11 @@
         <v>dg_1_qweae</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE("05 3 * * * cd /home/lol/data/www/",B25,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>05 3 * * * cd /home/lol/data/www/qweae.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/qweae.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>14</v>
       </c>
@@ -1131,11 +1129,11 @@
         <v>dg_1_rtyai</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE("10 3 * * * cd /home/lol/data/www/",B26,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>10 3 * * * cd /home/lol/data/www/rtyai.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/rtyai.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1147,11 +1145,11 @@
         <v>dg_1_uioya</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE("15 3 * * * cd /home/lol/data/www/",B27,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>15 3 * * * cd /home/lol/data/www/uioya.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/uioya.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>16</v>
       </c>
@@ -1163,11 +1161,11 @@
         <v>dg_1_vbnea</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE("20 3 * * * cd /home/lol/data/www/",B28,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>20 3 * * * cd /home/lol/data/www/vbnea.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/vbnea.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>17</v>
       </c>
@@ -1179,11 +1177,11 @@
         <v>dg_1_wsxoy</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE("25 3 * * * cd /home/lol/data/www/",B29,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>25 3 * * * cd /home/lol/data/www/wsxoy.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/wsxoy.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>18</v>
       </c>
@@ -1195,11 +1193,11 @@
         <v>dg_1_ytryy</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE("30 3 * * * cd /home/lol/data/www/",B30,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>30 3 * * * cd /home/lol/data/www/ytryy.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/ytryy.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>19</v>
       </c>
@@ -1211,11 +1209,11 @@
         <v>dg_1_zaqoe</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE("35 3 * * * cd /home/lol/data/www/",B31,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>35 3 * * * cd /home/lol/data/www/zaqoe.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/zaqoe.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>20</v>
       </c>
@@ -1227,14 +1225,8 @@
         <v>dg_1_zxcau</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE("40 3 * * * cd /home/lol/data/www/",B32,"/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
-        <v>40 3 * * * cd /home/lol/data/www/zxcau.ru/utils ; /usr/local/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" t="str">
-        <f>MID(B32,1,LEN(B32)-3)</f>
-        <v>zxcau</v>
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/zxcau.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
     </row>
   </sheetData>
@@ -1247,12 +1239,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1260,12 +1252,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="58">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Новости запощены</t>
-  </si>
-  <si>
-    <t>robots.txt</t>
   </si>
   <si>
     <t>Time table</t>
@@ -533,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13:E32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,10 +547,9 @@
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="48" customHeight="1">
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -584,11 +580,8 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,14 +612,11 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -657,14 +647,11 @@
       <c r="J3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -695,11 +682,8 @@
       <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -730,11 +714,8 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -765,11 +746,8 @@
       <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -800,11 +778,8 @@
       <c r="J7" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -835,11 +810,8 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -870,11 +842,8 @@
       <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -905,328 +874,685 @@
       <c r="J10" t="s">
         <v>20</v>
       </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("dg_1_",MID(B13,1,LEN(B13)-3))</f>
         <v>dg_1_asday</v>
       </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" t="str">
         <f>CONCATENATE("05 2 * * * cd /var/www/thedavidas/data/www/",B13,"/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/asday.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ref="C14:C32" si="0">CONCATENATE("dg_1_",MID(B14,1,LEN(B14)-3))</f>
         <v>dg_1_cdeou</v>
       </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" t="str">
         <f t="shared" ref="E14:E32" si="1">CONCATENATE("05 2 * * * cd /var/www/thedavidas/data/www/",B14,"/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1")</f>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/cdeou.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_cxzoa</v>
       </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/cxzoa.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_dsaya</v>
       </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/dsaya.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_ewqye</v>
       </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/ewqye.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_fghao</v>
       </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/fghao.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_hgfyu</v>
       </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/hgfyu.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_jklua</v>
       </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/jklua.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_lkjoa</v>
       </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/lkjoa.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_nbvyi</v>
       </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/nbvyi.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_nmbia</v>
       </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/nmbia.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_oiuyo</v>
       </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/oiuyo.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_qweae</v>
       </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/qweae.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_rtyai</v>
       </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/rtyai.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_uioya</v>
       </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/uioya.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_vbnea</v>
       </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/vbnea.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_wsxoy</v>
       </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
       <c r="E29" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/wsxoy.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_ytryy</v>
       </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/ytryy.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>19</v>
       </c>
       <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>dg_1_zaqoe</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>05 2 * * * cd /var/www/thedavidas/data/www/zaqoe.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>dg_1_zaqoe</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>05 2 * * * cd /var/www/thedavidas/data/www/zaqoe.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>dg_1_zxcau</v>
       </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
       <c r="E32" t="str">
         <f t="shared" si="1"/>
         <v>05 2 * * * cd /var/www/thedavidas/data/www/zxcau.ru/utils ; /usr/bin/php news_poster.php &gt;/dev/null 2&gt;&amp;1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doorgen/task/results.xlsx
+++ b/doorgen/task/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="58">
   <si>
     <t>hartey.ru</t>
   </si>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13:K32"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,6 +908,9 @@
       <c r="K13" t="s">
         <v>20</v>
       </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
@@ -942,6 +945,9 @@
       <c r="K14" t="s">
         <v>20</v>
       </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
@@ -976,6 +982,9 @@
       <c r="K15" t="s">
         <v>20</v>
       </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
@@ -1008,6 +1017,9 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
         <v>20</v>
       </c>
     </row>
